--- a/chatbot/Train_tools/qna/train_data.xlsx
+++ b/chatbot/Train_tools/qna/train_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\대학교\4학년 1학기\졸작2\School_Chatbot\chatbot\Train_tools\qna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D46760-24C1-44D2-8AFE-452AC62B2E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73219DBC-5205-49D8-8562-C537E8C5BD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91B3E3B2-3B68-0C4C-B8EF-7A84BAE2F665}"/>
+    <workbookView xWindow="28440" yWindow="1575" windowWidth="28575" windowHeight="15315" xr2:uid="{91B3E3B2-3B68-0C4C-B8EF-7A84BAE2F665}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="174">
   <si>
     <t>질문(Query)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -727,12 +730,492 @@
     <t>본교 운동장 본부석 1층 입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>컴공위치알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경남</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>김해시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인제로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">197, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장영실관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) 309</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="NanumBarunGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 입니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터공학부위치알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주묻는질문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포토갤러리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의과제등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업작품</t>
+  </si>
+  <si>
+    <t>학술제작품</t>
+  </si>
+  <si>
+    <t>학생회조직도</t>
+  </si>
+  <si>
+    <t>동아리 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취업정보센터주소알려줘</t>
+  </si>
+  <si>
+    <t>입학안내주소알려줘</t>
+  </si>
+  <si>
+    <t>교육과정알려줘</t>
+  </si>
+  <si>
+    <t>교육이수 체계도 알려줘</t>
+  </si>
+  <si>
+    <t>교직과정에대해알려줘</t>
+  </si>
+  <si>
+    <t>학과 소개</t>
+  </si>
+  <si>
+    <t>교수진 소개</t>
+  </si>
+  <si>
+    <t>실험실 소개</t>
+  </si>
+  <si>
+    <t>공학인증제에대해알려줘</t>
+  </si>
+  <si>
+    <t>대학원 교육과정</t>
+  </si>
+  <si>
+    <t>취업현황알려줘</t>
+  </si>
+  <si>
+    <t>취업공지</t>
+  </si>
+  <si>
+    <t>공지사항</t>
+  </si>
+  <si>
+    <t>강의자료실</t>
+  </si>
+  <si>
+    <t>컴퓨터공학부 자유게시판 주소입니다.
+-&gt; https://cs.inje.ac.kr/%EC%9E%90%EC%9C%A0%EA%B2%8C%EC%8B%9C%ED%8C%90/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주묻는질문 주소 입니다.
+-&gt; https://cs.inje.ac.kr/%EC%9E%90%EC%A3%BC%EB%AC%BB%EB%8A%94%EC%A7%88%EB%AC%B8/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포토갤러리 주소 입니다.
+-&gt; https://cs.inje.ac.kr/%ED%8F%AC%ED%86%A0%EA%B0%A4%EB%9F%AC%EB%A6%AC/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의과제등록 주소 입니다.
+-&gt; https://cs.inje.ac.kr/%EA%B0%95%EC%9D%98%EA%B3%BC%EC%A0%9C%EB%93%B1%EB%A1%9D/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업작품 주소 입니다.
+-&gt; https://cs.inje.ac.kr/%EC%A1%B8%EC%97%85%EC%9E%91%ED%92%88/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학술제작품 주소 입니다.
+-&gt; https://cs.inje.ac.kr/%ED%95%99%EC%88%A0%EC%A0%9C%EC%9E%91%ED%92%88/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생회조직도 주소 입니다.
+-&gt; https://cs.inje.ac.kr/%ED%95%99%EC%83%9D%ED%9A%8C%EC%A1%B0%EC%A7%81%EB%8F%84/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아리소개 주소 입니다.
+-&gt; https://cs.inje.ac.kr/%EB%8F%99%EC%95%84%EB%A6%AC-%EC%86%8C%EA%B0%9C/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터공학부 교육과정 주소입니다.
+-&gt; https://cs.inje.ac.kr/%EA%B5%90%EC%9C%A1%EA%B3%BC%EC%A0%95/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육이수 체계도 주소 입니다.
+-&gt; https://cs.inje.ac.kr/%EA%B5%90%EC%9C%A1%EC%9D%B4%EC%88%98-%EC%B2%B4%EA%B3%84%EB%8F%84/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교직과정에 대한 주소 입니다.
+-&gt; https://cs.inje.ac.kr/%EA%B5%90%EC%A7%81%EA%B3%BC%EC%A0%95/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터의 기론이론 및 최신기술을 교육하여 컴퓨터시스템 및 소프트웨어 모든 분야의 본질적인 소양을 갖춘 정보화 사회의 선두 구성원을 양성한다.
+한국공학교육인증원으로부터 공학교육인증을 받아 창의적인 컴퓨터 마인드와 공학적 지식을 겸비한 실무 능력을 갖춘 인재를 양성하고 있으며 아울러 교직과정을 개설하여 교사를 희망하는 학생들의 교육에도 힘쓰고 있다. 또한 국내 유명 대학원에도 다수 진학하고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수진 소개에 대한 주소 입니다.
+-&gt; https://cs.inje.ac.kr/%EA%B5%90%EC%88%98%EC%A7%84-%EC%86%8C%EA%B0%9C/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실험실에 정보에 대한 주소 입니다.
+-&gt; https://cs.inje.ac.kr/%EC%8B%A4%ED%97%98%EC%8B%A4-%EC%86%8C%EA%B0%9C/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공학인증제 정보에 대한 주소 입니다.
+-&gt; https://cs.inje.ac.kr/%EA%B3%B5%ED%95%99%EC%9D%B8%EC%A6%9D%EC%A0%9C/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경남</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>김해시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인제로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">197, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장영실관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) 309</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="NanumBarunGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="NanumBarunGothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터공학부 대학원 교육과정 주소입니다.
+-&gt; https://cs.inje.ac.kr/%EB%8C%80%ED%95%99%EC%9B%90-%EA%B5%90%EC%9C%A1%EA%B3%BC%EC%A0%95/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취업현황 정보에 대한 주소 입니다.
+-&gt; https://cs.inje.ac.kr/%EC%B7%A8%EC%97%85%ED%98%84%ED%99%A9/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취업공지에 대한 주소 입니다.
+-&gt; https://cs.inje.ac.kr/%EC%B7%A8%EC%97%85%EA%B3%B5%EC%A7%80/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인제대학교 취업정보센터 주소입니다.
+-&gt; https://sail.inje.ac.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인제대학교 입학관련 주소 입니다.
+-&gt; https://iphak.inje.ac.kr/intro.asp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항에 대한 주소 입니다.
+-&gt; https://cs.inje.ac.kr/%EA%B3%B5%EC%A7%80%EC%82%AC%ED%95%AD/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의자료실 주소 입니다.
+-&gt; https://cs.inje.ac.kr/%EA%B0%95%EC%9D%98%EC%9E%90%EB%A3%8C%EC%8B%A4/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교훈 알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인제대학교의 교훈은
+正直(정직) · 誠實(성실) · 勤勉(근면)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육목표 알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복한 개인
+- 바른 인성으로 자기주도적 삶을 실천하는 도덕적 개인
+참여하는 시민
+- 더 나은 사회를 위해 현실에 도전하고 지역과 소통하는 협력적 시민
+역량을 갖춘 전문인
+- 미래사회에 필요한 융복합 지식과 창의역량을 갖춘 실천적 전문인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육이념 알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인제대학교 교육이념은
+自然保護(자연보호) · 生命尊重(생명존중) · 人間(인간)사랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:8000/images/학생회</t>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -795,6 +1278,39 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="NanumBarunGothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="NanumBarunGothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -836,7 +1352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -847,6 +1363,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1164,13 +1683,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B4CC4D-BBB6-C948-A332-3C0CB96286D0}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="32.109375" customWidth="1"/>
@@ -1178,7 +1697,7 @@
     <col min="4" max="4" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1192,7 +1711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="93.75" customHeight="1">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1202,9 +1721,11 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="88.5" customHeight="1">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1214,9 +1735,11 @@
       <c r="C3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="102" customHeight="1">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1226,8 +1749,11 @@
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="D4" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34.5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1237,8 +1763,11 @@
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="D5" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34.5">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1248,8 +1777,11 @@
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="D6" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="34.5">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1259,8 +1791,11 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="D7" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="34.5">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1270,8 +1805,11 @@
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="D8" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="34.5">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1281,8 +1819,11 @@
       <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="D9" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="34.5">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1292,8 +1833,11 @@
       <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="59.25" customHeight="1">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1303,8 +1847,11 @@
       <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="D11" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="34.5">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1314,8 +1861,11 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="D12" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="34.5">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1325,8 +1875,11 @@
       <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="D13" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="34.5">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1336,8 +1889,11 @@
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="D14" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="34.5">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1347,8 +1903,11 @@
       <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="D15" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="34.5">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1358,8 +1917,11 @@
       <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1369,8 +1931,11 @@
       <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1380,8 +1945,11 @@
       <c r="C18" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1391,8 +1959,11 @@
       <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1402,8 +1973,11 @@
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="D20" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="34.5">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1413,8 +1987,11 @@
       <c r="C21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="D21" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="34.5">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1424,8 +2001,11 @@
       <c r="C22" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="D22" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="34.5">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1435,10 +2015,13 @@
       <c r="C23" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="D23" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="51.75">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
         <v>39</v>
@@ -1446,10 +2029,13 @@
       <c r="C24" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="D24" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="51.75">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
         <v>42</v>
@@ -1457,10 +2043,13 @@
       <c r="C25" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="D25" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="51.75">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
@@ -1468,10 +2057,13 @@
       <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="D26" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="51.75">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
         <v>44</v>
@@ -1479,10 +2071,13 @@
       <c r="C27" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="D27" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="51.75">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
@@ -1490,10 +2085,13 @@
       <c r="C28" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="D28" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="51.75">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
         <v>46</v>
@@ -1501,8 +2099,11 @@
       <c r="C29" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="D29" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="34.5">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1512,8 +2113,11 @@
       <c r="C30" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="D30" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="34.5">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1523,8 +2127,11 @@
       <c r="C31" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="D31" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="34.5">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1534,8 +2141,11 @@
       <c r="C32" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="D32" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="34.5">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1545,8 +2155,11 @@
       <c r="C33" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1556,8 +2169,11 @@
       <c r="C34" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1567,8 +2183,11 @@
       <c r="C35" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1578,361 +2197,849 @@
       <c r="C36" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>5</v>
       </c>
       <c r="B37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="103.5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="D39" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="103.5">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
         <v>55</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="103.5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="103.5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" t="s">
-        <v>58</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="D40" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="103.5">
       <c r="A41" t="s">
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="120.75" x14ac:dyDescent="0.3">
+      <c r="D41" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="103.5">
       <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="103.5">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="120.75">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="120.75" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="D44" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="120.75">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="D45" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="D46" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="D47" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="D48" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="D49" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="D50" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="D51" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="34.5">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="D52" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="34.5">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="D53" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="34.5">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="D54" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="34.5">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="D55" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="D56" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="D57" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="D58" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="34.5">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="155.25" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="120.75" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="224.25" x14ac:dyDescent="0.3">
+      <c r="D59" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="155.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="258.75" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="120.75">
       <c r="A61" t="s">
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="224.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="189.75" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="258.75">
       <c r="A63" t="s">
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="120.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="51.75">
       <c r="A64" t="s">
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="258.75" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="189.75">
       <c r="A65" t="s">
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="86.25" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="120.75">
       <c r="A66" t="s">
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="189.75" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="258.75">
       <c r="A67" t="s">
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="86.25">
       <c r="A68" t="s">
         <v>6</v>
       </c>
       <c r="B68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="189.75">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="34.5">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C69" s="2"/>
+      <c r="D70" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="69">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="86.25">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="69">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="86.25">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="69">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="69">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="86.25">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D77" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="69">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="69">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>131</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="86.25">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="69">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>133</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="189.75">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="69">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>135</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="69">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>136</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="69">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>137</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>120</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="103.5">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="69">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>139</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="69">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>140</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="34.5">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>129</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="34.5">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>130</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="69">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>141</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="69">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>142</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="34.5">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>166</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="155.25">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>168</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="51.75">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>170</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>173</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/chatbot/Train_tools/qna/train_data.xlsx
+++ b/chatbot/Train_tools/qna/train_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\대학교\4학년 1학기\졸작2\School_Chatbot\chatbot\Train_tools\qna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcf8860711d68056/바탕 화면/새 폴더 (2)/Graduation_work/chatbot/Train_tools/qna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73219DBC-5205-49D8-8562-C537E8C5BD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{73219DBC-5205-49D8-8562-C537E8C5BD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5734137-F010-4087-95E1-F6769A3B8D8B}"/>
   <bookViews>
-    <workbookView xWindow="28440" yWindow="1575" windowWidth="28575" windowHeight="15315" xr2:uid="{91B3E3B2-3B68-0C4C-B8EF-7A84BAE2F665}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91B3E3B2-3B68-0C4C-B8EF-7A84BAE2F665}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1204,11 +1204,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>:8000/images/학생회</t>
-  </si>
-  <si>
     <t>없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8000/static/resize_images/%ED%95%99%EC%83%9D%ED%9A%8C_resize.jpg</t>
   </si>
 </sst>
 </file>
@@ -1685,16 +1685,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B4CC4D-BBB6-C948-A332-3C0CB96286D0}">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="19.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" customWidth="1"/>
-    <col min="3" max="3" width="40.44140625" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.36328125" customWidth="1"/>
+    <col min="2" max="2" width="32.08984375" customWidth="1"/>
+    <col min="3" max="3" width="40.453125" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1722,7 +1722,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="88.5" customHeight="1">
@@ -1736,7 +1736,7 @@
         <v>60</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="102" customHeight="1">
@@ -1750,10 +1750,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="34.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="38.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1764,10 +1764,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="38.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1778,10 +1778,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="34.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="38.4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1792,10 +1792,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="34.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="38.4">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1806,10 +1806,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="34.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="38.4">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1820,10 +1820,10 @@
         <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="34.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="38.4">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="59.25" customHeight="1">
@@ -1848,10 +1848,10 @@
         <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="34.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="38.4">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1862,10 +1862,10 @@
         <v>30</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="34.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="38.4">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1876,10 +1876,10 @@
         <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="34.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="38.4">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1890,10 +1890,10 @@
         <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="34.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="38.4">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1904,10 +1904,10 @@
         <v>33</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="34.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="38.4">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>34</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1932,7 +1932,7 @@
         <v>25</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1946,7 +1946,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1960,7 +1960,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1974,10 +1974,10 @@
         <v>25</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="34.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="38.4">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1988,10 +1988,10 @@
         <v>36</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="34.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="38.4">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2002,10 +2002,10 @@
         <v>36</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="34.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="38.4">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2016,10 +2016,10 @@
         <v>40</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="51.75">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="57.6">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -2030,10 +2030,10 @@
         <v>41</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="51.75">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="57.6">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -2044,10 +2044,10 @@
         <v>41</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="51.75">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="57.6">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2058,10 +2058,10 @@
         <v>41</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="51.75">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="57.6">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -2072,10 +2072,10 @@
         <v>41</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="51.75">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="57.6">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2086,10 +2086,10 @@
         <v>41</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="51.75">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="57.6">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2100,10 +2100,10 @@
         <v>41</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="34.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="38.4">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2114,10 +2114,10 @@
         <v>48</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="34.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="38.4">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2128,10 +2128,10 @@
         <v>104</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="34.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="38.4">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2142,10 +2142,10 @@
         <v>106</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="34.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="38.4">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>48</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2170,7 +2170,7 @@
         <v>50</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2184,7 +2184,7 @@
         <v>50</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2198,7 +2198,7 @@
         <v>50</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2212,7 +2212,7 @@
         <v>119</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2226,7 +2226,7 @@
         <v>119</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2240,10 +2240,10 @@
         <v>50</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="103.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="115.2">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2254,10 +2254,10 @@
         <v>56</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="103.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="115.2">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2268,10 +2268,10 @@
         <v>56</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="103.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="115.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2282,10 +2282,10 @@
         <v>56</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="103.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="115.2">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -2296,10 +2296,10 @@
         <v>56</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="120.75">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="134.4">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -2310,10 +2310,10 @@
         <v>62</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="120.75">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="134.4">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>62</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2338,7 +2338,7 @@
         <v>65</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2352,7 +2352,7 @@
         <v>67</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2366,7 +2366,7 @@
         <v>69</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2380,7 +2380,7 @@
         <v>71</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2394,7 +2394,7 @@
         <v>73</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2408,10 +2408,10 @@
         <v>75</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="34.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="38.4">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2422,10 +2422,10 @@
         <v>100</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="34.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="38.4">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -2436,10 +2436,10 @@
         <v>102</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="34.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="38.4">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -2450,10 +2450,10 @@
         <v>109</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="34.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="38.4">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>111</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2478,7 +2478,7 @@
         <v>113</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2492,7 +2492,7 @@
         <v>115</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2506,10 +2506,10 @@
         <v>117</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="34.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="38.4">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -2520,10 +2520,10 @@
         <v>76</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="155.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="172.8">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -2534,10 +2534,10 @@
         <v>88</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="120.75">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="134.4">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -2548,10 +2548,10 @@
         <v>89</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="224.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="249.6">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -2562,10 +2562,10 @@
         <v>90</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="258.75">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="288">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -2576,10 +2576,10 @@
         <v>91</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="51.75">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="57.6">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -2590,10 +2590,10 @@
         <v>92</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="189.75">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="211.2">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -2604,10 +2604,10 @@
         <v>93</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="120.75">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="134.4">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -2618,10 +2618,10 @@
         <v>87</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="258.75">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="288">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -2632,10 +2632,10 @@
         <v>94</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="86.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="96">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -2646,10 +2646,10 @@
         <v>95</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="189.75">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="211.2">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -2660,10 +2660,10 @@
         <v>96</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="34.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="38.4">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -2674,10 +2674,10 @@
         <v>98</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="69">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="76.8">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -2688,10 +2688,10 @@
         <v>143</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="86.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="96">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -2702,10 +2702,10 @@
         <v>144</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="69">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="76.8">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -2716,10 +2716,10 @@
         <v>145</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="86.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="96">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -2730,10 +2730,10 @@
         <v>146</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="69">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="76.8">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -2744,10 +2744,10 @@
         <v>147</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="69">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="76.8">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -2758,10 +2758,10 @@
         <v>148</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="86.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="96">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -2772,10 +2772,10 @@
         <v>149</v>
       </c>
       <c r="D77" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="69">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="76.8">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2786,10 +2786,10 @@
         <v>150</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="69">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="76.8">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -2800,10 +2800,10 @@
         <v>151</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="86.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="96">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -2814,10 +2814,10 @@
         <v>152</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="69">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="76.8">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2828,10 +2828,10 @@
         <v>153</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="189.75">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="211.2">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -2842,10 +2842,10 @@
         <v>154</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="69">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="76.8">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -2856,10 +2856,10 @@
         <v>155</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="69">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="76.8">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -2870,10 +2870,10 @@
         <v>156</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="69">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="76.8">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>157</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2898,10 +2898,10 @@
         <v>158</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="103.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="115.2">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -2912,10 +2912,10 @@
         <v>159</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="69">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="76.8">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -2926,10 +2926,10 @@
         <v>160</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="69">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="76.8">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -2940,10 +2940,10 @@
         <v>161</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="34.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="38.4">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -2954,10 +2954,10 @@
         <v>162</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="34.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="38.4">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -2968,10 +2968,10 @@
         <v>163</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="69">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="76.8">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -2982,10 +2982,10 @@
         <v>164</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="69">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="76.8">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -2996,10 +2996,10 @@
         <v>165</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="34.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="38.4">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -3010,10 +3010,10 @@
         <v>167</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="155.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="172.8">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -3024,10 +3024,10 @@
         <v>169</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="51.75">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="57.6">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>171</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/chatbot/Train_tools/qna/train_data.xlsx
+++ b/chatbot/Train_tools/qna/train_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcf8860711d68056/바탕 화면/새 폴더 (2)/Graduation_work/chatbot/Train_tools/qna/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\대학교\4학년 1학기\졸작2\School_Chatbot\chatbot\Train_tools\qna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{73219DBC-5205-49D8-8562-C537E8C5BD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5734137-F010-4087-95E1-F6769A3B8D8B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6908632C-66C5-4208-9971-824C31DA7F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91B3E3B2-3B68-0C4C-B8EF-7A84BAE2F665}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91B3E3B2-3B68-0C4C-B8EF-7A84BAE2F665}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="208">
   <si>
     <t>질문(Query)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -982,11 +982,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>컴퓨터의 기론이론 및 최신기술을 교육하여 컴퓨터시스템 및 소프트웨어 모든 분야의 본질적인 소양을 갖춘 정보화 사회의 선두 구성원을 양성한다.
-한국공학교육인증원으로부터 공학교육인증을 받아 창의적인 컴퓨터 마인드와 공학적 지식을 겸비한 실무 능력을 갖춘 인재를 양성하고 있으며 아울러 교직과정을 개설하여 교사를 희망하는 학생들의 교육에도 힘쓰고 있다. 또한 국내 유명 대학원에도 다수 진학하고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>교수진 소개에 대한 주소 입니다.
 -&gt; https://cs.inje.ac.kr/%EA%B5%90%EC%88%98%EC%A7%84-%EC%86%8C%EA%B0%9C/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1208,7 +1203,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://localhost:8000/static/resize_images/%ED%95%99%EC%83%9D%ED%9A%8C_resize.jpg</t>
+    <t>E동 1층 안내도 보여줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E동 1층에 대한 약도입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E동 2층 안내도 보여줘</t>
+  </si>
+  <si>
+    <t>E동 2층에 대한 약도입니다.</t>
+  </si>
+  <si>
+    <t>E동 3층 안내도 보여줘</t>
+  </si>
+  <si>
+    <t>E동 3층에 대한 약도입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E동 4층 안내도 보여줘</t>
+  </si>
+  <si>
+    <t>E동 4층에 대한 약도입니다.</t>
+  </si>
+  <si>
+    <t>E동 5층 안내도 보여줘</t>
+  </si>
+  <si>
+    <t>E동 5층에 대한 약도입니다.</t>
+  </si>
+  <si>
+    <t>E동 6층 안내도 보여줘</t>
+  </si>
+  <si>
+    <t>E동 6층에 대한 약도입니다.</t>
+  </si>
+  <si>
+    <t>흡연구역 알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교내 내의 흡연 구역 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통학버스 타는곳 알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통학버스 승차장은 A동 버스승차장 : 동래, 영도/부산역, 하단, 해운대, 양산
+운동장 버스승차장 : 마산, 창원, 진해, 장유, 울산 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8000/static//images/%ED%9D%A1%EC%97%B0%EA%B5%AC%EC%97%AD.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8000/static//resize_images/%ED%95%99%EC%83%9D%ED%9A%8C_resize.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터의 기초이론 및 최신기술을 교육하여 컴퓨터시스템 및 소프트웨어 모든 분야의 본질적인 소양을 갖춘 정보화 사회의 선두 구성원을 양성한다.
+한국공학교육인증원으로부터 공학교육인증을 받아 창의적인 컴퓨터 마인드와 공학적 지식을 겸비한 실무 능력을 갖춘 인재를 양성하고 있으며 아울러 교직과정을 개설하여 교사를 희망하는 학생들의 교육에도 힘쓰고 있다. 또한 국내 유명 대학원에도 다수 진학하고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8000//static//images/%ED%86%B5%ED%95%99%EB%B2%84%EC%8A%A4%EC%8A%B9%EA%B0%95%EC%9E%A5.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8000/static//images/E%EB%8F%99303%ED%98%B8.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8000/static//images/E%EB%8F%99305%ED%98%B8.png</t>
+  </si>
+  <si>
+    <t>http://localhost:8000/static//images/E%EB%8F%99307%ED%98%B8.png</t>
+  </si>
+  <si>
+    <t>http://localhost:8000/static//images/E%EB%8F%99312%ED%98%B8.png</t>
+  </si>
+  <si>
+    <t>http://localhost:8000/static//images/E%EB%8F%99313%ED%98%B8.png</t>
+  </si>
+  <si>
+    <t>http://localhost:8000/static//images/E%EB%8F%99311%ED%98%B8.png</t>
+  </si>
+  <si>
+    <t>http://localhost:8000/static//images/E%EB%8F%99342%ED%98%B8.png</t>
+  </si>
+  <si>
+    <t>http://localhost:8000/static//images/E%EB%8F%99309%ED%98%B8.png</t>
+  </si>
+  <si>
+    <t>http://localhost:8000/static//images/E%EB%8F%991%EC%B8%B5.jpg</t>
+  </si>
+  <si>
+    <t>http://localhost:8000/static//images/E%EB%8F%992%EC%B8%B5.jpg</t>
+  </si>
+  <si>
+    <t>http://localhost:8000/static//images/E%EB%8F%993%EC%B8%B5.jpg</t>
+  </si>
+  <si>
+    <t>http://localhost:8000/static//images/E%EB%8F%994%EC%B8%B5.jpg</t>
+  </si>
+  <si>
+    <t>http://localhost:8000/static//images/E%EB%8F%995%EC%B8%B5.jpg</t>
+  </si>
+  <si>
+    <t>http://localhost:8000/static//images/E%EB%8F%996%EC%B8%B5.jpg</t>
+  </si>
+  <si>
+    <t>http://localhost:8000/static//images/%EC%9D%B8%EC%A0%9C%EB%8C%80%EC%97%AD%ED%86%B5%ED%95%99%EB%B2%84%EC%8A%A4.jpg</t>
+  </si>
+  <si>
+    <t>http://localhost:8000/static//images/E%EB%8F%99309%ED%98%B8.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1352,7 +1467,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1366,6 +1481,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1683,18 +1801,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B4CC4D-BBB6-C948-A332-3C0CB96286D0}">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="19.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="18.36328125" customWidth="1"/>
-    <col min="2" max="2" width="32.08984375" customWidth="1"/>
-    <col min="3" max="3" width="40.453125" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="3" max="3" width="40.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1722,7 +1840,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="88.5" customHeight="1">
@@ -1736,7 +1854,7 @@
         <v>60</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="102" customHeight="1">
@@ -1750,10 +1868,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="38.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34.5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1764,10 +1882,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="38.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34.5">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1778,10 +1896,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="38.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="34.5">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1792,10 +1910,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="38.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="34.5">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1806,10 +1924,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="38.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="34.5">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1820,10 +1938,10 @@
         <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="38.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="34.5">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1834,7 +1952,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="59.25" customHeight="1">
@@ -1848,10 +1966,10 @@
         <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="38.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="34.5">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1862,10 +1980,10 @@
         <v>30</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="38.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="34.5">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1876,10 +1994,10 @@
         <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="38.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="34.5">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1890,10 +2008,10 @@
         <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="38.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="34.5">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1904,10 +2022,10 @@
         <v>33</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="38.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="34.5">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1918,7 +2036,7 @@
         <v>34</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1932,7 +2050,7 @@
         <v>25</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1946,7 +2064,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1960,7 +2078,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1974,10 +2092,10 @@
         <v>25</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="38.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="34.5">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1988,10 +2106,10 @@
         <v>36</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="38.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="34.5">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2002,10 +2120,10 @@
         <v>36</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="38.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="34.5">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2016,10 +2134,10 @@
         <v>40</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="57.6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="51.75">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -2030,10 +2148,10 @@
         <v>41</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="57.6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="51.75">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -2044,10 +2162,10 @@
         <v>41</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="57.6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="51.75">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2058,10 +2176,10 @@
         <v>41</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="57.6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="51.75">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -2072,10 +2190,10 @@
         <v>41</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="57.6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="51.75">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2086,10 +2204,10 @@
         <v>41</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="57.6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="51.75">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2100,10 +2218,10 @@
         <v>41</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="38.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="34.5">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2114,10 +2232,10 @@
         <v>48</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="38.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="34.5">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2128,10 +2246,10 @@
         <v>104</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="38.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="34.5">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2142,10 +2260,10 @@
         <v>106</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="38.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="34.5">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2156,7 +2274,7 @@
         <v>48</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2170,7 +2288,7 @@
         <v>50</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2184,7 +2302,7 @@
         <v>50</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2197,8 +2315,8 @@
       <c r="C36" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>172</v>
+      <c r="D36" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2211,8 +2329,8 @@
       <c r="C37" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>172</v>
+      <c r="D37" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2226,7 +2344,7 @@
         <v>119</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2240,10 +2358,10 @@
         <v>50</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="115.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="103.5">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2254,10 +2372,10 @@
         <v>56</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="115.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="103.5">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2268,10 +2386,10 @@
         <v>56</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="115.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="103.5">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2282,10 +2400,10 @@
         <v>56</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="115.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="103.5">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -2296,10 +2414,10 @@
         <v>56</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="134.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="120.75">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -2310,10 +2428,10 @@
         <v>62</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="134.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="120.75">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -2324,7 +2442,7 @@
         <v>62</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2338,7 +2456,7 @@
         <v>65</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2352,7 +2470,7 @@
         <v>67</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2366,7 +2484,7 @@
         <v>69</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2380,7 +2498,7 @@
         <v>71</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2393,8 +2511,8 @@
       <c r="C50" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>172</v>
+      <c r="D50" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2408,10 +2526,10 @@
         <v>75</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="38.4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="34.5">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2422,10 +2540,10 @@
         <v>100</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="38.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="34.5">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -2436,10 +2554,10 @@
         <v>102</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="38.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="34.5">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -2450,10 +2568,10 @@
         <v>109</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="38.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="34.5">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -2464,7 +2582,7 @@
         <v>111</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2478,7 +2596,7 @@
         <v>113</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2492,7 +2610,7 @@
         <v>115</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2506,10 +2624,10 @@
         <v>117</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="38.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="34.5">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -2520,10 +2638,10 @@
         <v>76</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="172.8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="155.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -2534,10 +2652,10 @@
         <v>88</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="134.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="120.75">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -2548,10 +2666,10 @@
         <v>89</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="249.6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="224.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -2562,10 +2680,10 @@
         <v>90</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="288">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="258.75">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -2576,10 +2694,10 @@
         <v>91</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="57.6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="51.75">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -2590,10 +2708,10 @@
         <v>92</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="211.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="189.75">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -2604,10 +2722,10 @@
         <v>93</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="134.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="120.75">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -2618,10 +2736,10 @@
         <v>87</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="288">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="258.75">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -2632,10 +2750,10 @@
         <v>94</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="96">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="86.25">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -2646,10 +2764,10 @@
         <v>95</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="211.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="189.75">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -2660,10 +2778,10 @@
         <v>96</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="38.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="34.5">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -2674,10 +2792,10 @@
         <v>98</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="76.8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="69">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -2688,10 +2806,10 @@
         <v>143</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="96">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="86.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -2702,10 +2820,10 @@
         <v>144</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="76.8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="69">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -2716,10 +2834,10 @@
         <v>145</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="96">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="86.25">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -2730,10 +2848,10 @@
         <v>146</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="76.8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="69">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -2744,10 +2862,10 @@
         <v>147</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="76.8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="69">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -2758,10 +2876,10 @@
         <v>148</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="96">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="86.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -2771,11 +2889,11 @@
       <c r="C77" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D77" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="76.8">
+      <c r="D77" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="69">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2786,10 +2904,10 @@
         <v>150</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="76.8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="69">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -2800,10 +2918,10 @@
         <v>151</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="96">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="86.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -2814,10 +2932,10 @@
         <v>152</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="76.8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="69">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2828,10 +2946,10 @@
         <v>153</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="211.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="189.75">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -2839,13 +2957,13 @@
         <v>134</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="76.8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="69">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -2853,13 +2971,13 @@
         <v>135</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="76.8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="69">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -2867,13 +2985,13 @@
         <v>136</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="76.8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="69">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -2881,10 +2999,10 @@
         <v>137</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2895,13 +3013,13 @@
         <v>120</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="115.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="103.5">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -2909,13 +3027,13 @@
         <v>138</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="76.8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="69">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -2923,13 +3041,13 @@
         <v>139</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="76.8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="69">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -2937,13 +3055,13 @@
         <v>140</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="38.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="34.5">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -2951,13 +3069,13 @@
         <v>129</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="38.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="34.5">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -2965,13 +3083,13 @@
         <v>130</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="76.8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="69">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -2979,13 +3097,13 @@
         <v>141</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="76.8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="69">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -2993,57 +3111,177 @@
         <v>142</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="34.5">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
         <v>165</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="C94" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="155.25">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>167</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="51.75">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>169</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="38.4">
-      <c r="A94" t="s">
-        <v>5</v>
-      </c>
-      <c r="B94" t="s">
-        <v>166</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="172.8">
-      <c r="A95" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95" t="s">
-        <v>168</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="57.6">
-      <c r="A96" t="s">
-        <v>5</v>
-      </c>
-      <c r="B96" t="s">
-        <v>170</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>172</v>
+      <c r="C97" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>174</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>176</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>178</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>180</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>182</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>184</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="69">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>186</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D77" r:id="rId1" xr:uid="{E8F373CA-0796-4E11-BF7F-ED85B8962AFF}"/>
+    <hyperlink ref="D103" r:id="rId2" xr:uid="{36810B06-787D-4891-971E-BC775FA0D743}"/>
+    <hyperlink ref="D104" r:id="rId3" xr:uid="{BC756C2C-0066-4571-BF0E-476B85C447A2}"/>
+    <hyperlink ref="D50" r:id="rId4" xr:uid="{D876EF0F-FFCA-43B1-80CB-651198BE1985}"/>
+    <hyperlink ref="D37" r:id="rId5" xr:uid="{71CA3337-BC39-4A9B-93A4-EF742C6E78C5}"/>
+    <hyperlink ref="D36" r:id="rId6" xr:uid="{F79FB508-0C81-402B-AE0F-B9188A88DD9C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/chatbot/Train_tools/qna/train_data.xlsx
+++ b/chatbot/Train_tools/qna/train_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\대학교\4학년 1학기\졸작2\School_Chatbot\chatbot\Train_tools\qna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6908632C-66C5-4208-9971-824C31DA7F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B7B89F-F8D8-4EB2-87ED-41C6F7F968C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91B3E3B2-3B68-0C4C-B8EF-7A84BAE2F665}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91B3E3B2-3B68-0C4C-B8EF-7A84BAE2F665}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="209">
   <si>
     <t>질문(Query)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1323,6 +1323,10 @@
   </si>
   <si>
     <t>http://localhost:8000/static//images/E%EB%8F%99309%ED%98%B8.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8000/static//images/E%EB%8F%99342%ED%98%B8.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1803,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B4CC4D-BBB6-C948-A332-3C0CB96286D0}">
   <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -2288,7 +2292,7 @@
         <v>50</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2302,7 +2306,7 @@
         <v>50</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2316,7 +2320,7 @@
         <v>50</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2357,8 +2361,8 @@
       <c r="C39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>198</v>
+      <c r="D39" s="5" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="103.5">
@@ -2949,15 +2953,15 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="189.75">
+    <row r="82" spans="1:4" ht="69">
       <c r="A82" t="s">
         <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>171</v>
@@ -2968,66 +2972,66 @@
         <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="69">
+    <row r="84" spans="1:4" ht="34.5">
       <c r="A84" t="s">
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="69">
+    <row r="85" spans="1:4" ht="155.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" ht="51.75">
       <c r="A86" t="s">
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>120</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>157</v>
+        <v>169</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="103.5">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="189.75">
       <c r="A87" t="s">
         <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>171</v>
@@ -3038,10 +3042,10 @@
         <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>171</v>
@@ -3052,52 +3056,52 @@
         <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="34.5">
+    <row r="90" spans="1:4" ht="69">
       <c r="A90" t="s">
         <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="34.5">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>130</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>162</v>
+        <v>120</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="69">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="103.5">
       <c r="A92" t="s">
         <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>171</v>
@@ -3108,52 +3112,52 @@
         <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="34.5">
+    <row r="94" spans="1:4" ht="69">
       <c r="A94" t="s">
         <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="155.25">
+    <row r="95" spans="1:4" ht="34.5">
       <c r="A95" t="s">
         <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="51.75">
+    <row r="96" spans="1:4" ht="34.5">
       <c r="A96" t="s">
         <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>171</v>
@@ -3279,7 +3283,7 @@
     <hyperlink ref="D104" r:id="rId3" xr:uid="{BC756C2C-0066-4571-BF0E-476B85C447A2}"/>
     <hyperlink ref="D50" r:id="rId4" xr:uid="{D876EF0F-FFCA-43B1-80CB-651198BE1985}"/>
     <hyperlink ref="D37" r:id="rId5" xr:uid="{71CA3337-BC39-4A9B-93A4-EF742C6E78C5}"/>
-    <hyperlink ref="D36" r:id="rId6" xr:uid="{F79FB508-0C81-402B-AE0F-B9188A88DD9C}"/>
+    <hyperlink ref="D39" r:id="rId6" xr:uid="{FDF7E3CC-18F9-4A5B-A5D7-9EA83A3036D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
